--- a/inputs/AddictO_Not_yet_classified_Defs.xlsx
+++ b/inputs/AddictO_Not_yet_classified_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B9EB23-AB5A-5345-87D8-0B48E8D364E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0083AF56-770B-3F43-B506-8892C8384430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="414">
   <si>
     <t>ID</t>
   </si>
@@ -1675,9 +1675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C342" sqref="C342"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q373" sqref="Q373:Q379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1949,7 +1949,9 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1968,7 +1970,9 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1996,7 +2000,9 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2020,7 +2026,9 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2042,7 +2050,9 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2188,7 +2198,9 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:18" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
@@ -2332,6 +2344,9 @@
         <v>71</v>
       </c>
       <c r="J43" s="7"/>
+      <c r="Q43" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="44" spans="1:17" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
@@ -4688,11 +4703,16 @@
       <c r="M333" s="5"/>
       <c r="N333" s="5"/>
       <c r="P333" s="5"/>
-      <c r="Q333" s="5"/>
+      <c r="Q333" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="334" spans="2:17" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="4" t="s">
         <v>346</v>
+      </c>
+      <c r="Q334" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="335" spans="2:17" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5036,9 +5056,6 @@
     </row>
     <row r="373" spans="2:17" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="7"/>
-      <c r="Q373" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="374" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="7"/>
@@ -5055,21 +5072,12 @@
     </row>
     <row r="375" spans="2:17" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="7"/>
-      <c r="Q375" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="376" spans="2:17" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="7"/>
-      <c r="Q376" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="377" spans="2:17" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="7"/>
-      <c r="Q377" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="378" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="7"/>
@@ -5088,9 +5096,6 @@
     </row>
     <row r="379" spans="2:17" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="7"/>
-      <c r="Q379" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="380" spans="2:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B380" s="7"/>

--- a/inputs/AddictO_Not_yet_classified_Defs.xlsx
+++ b/inputs/AddictO_Not_yet_classified_Defs.xlsx
@@ -64,74 +64,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -7390,6 +7322,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000824</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>toxicant</t>

--- a/inputs/AddictO_Not_yet_classified_Defs.xlsx
+++ b/inputs/AddictO_Not_yet_classified_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFCFE0-463A-E54B-84B9-8001BFC4453A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1AFB7-0917-2146-966B-71B5AD954E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="418">
   <si>
     <t>ID</t>
   </si>
@@ -1627,11 +1627,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16">
       <c r="A1" s="1" t="s">
@@ -3223,9 +3226,6 @@
       <c r="S55" s="2"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
       <c r="B56" t="s">
         <v>90</v>
       </c>
